--- a/biology/Médecine/Sillon_du_nerf_radial/Sillon_du_nerf_radial.xlsx
+++ b/biology/Médecine/Sillon_du_nerf_radial/Sillon_du_nerf_radial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Le sillon du nerf radial (ou gouttière radiale ou gouttière de torsion de l'humérus) est une gouttière oblique en bas et en dehors, large mais peu profonde située à la partie moyenne de la face postérieure de l'humérus. Elle correspond au passage du nerf radial et de l'artère brachiale profonde[1].
+Le sillon du nerf radial (ou gouttière radiale ou gouttière de torsion de l'humérus) est une gouttière oblique en bas et en dehors, large mais peu profonde située à la partie moyenne de la face postérieure de l'humérus. Elle correspond au passage du nerf radial et de l'artère brachiale profonde.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que le sillon du nerf radial protège le nerf radial, il peut être impliqué dans les compressions de ce nerf (pression externe due à la chirurgie) qui peuvent provoquer une paralysie du nerf radial[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que le sillon du nerf radial protège le nerf radial, il peut être impliqué dans les compressions de ce nerf (pression externe due à la chirurgie) qui peuvent provoquer une paralysie du nerf radial,.
 </t>
         </is>
       </c>
